--- a/data/trans_dic/IP1007-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1007-Edad-trans_dic.xlsx
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,25%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,23%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>0,39%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0,13%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,12%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,29</t>
+          <t>0,3; 2,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,28</t>
+          <t>0; 0,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,28</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,61</t>
+          <t>0,0; 1,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 1,79</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,53</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,51</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,09</t>
+          <t>0,16; 1,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,74</t>
+          <t>0,0; 1,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,58</t>
+          <t>0,0; 0,64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,29 +852,29 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,26%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,39%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
@@ -882,17 +882,17 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,12%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,61</t>
+          <t>0,0; 1,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,0; 1,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,0; 1,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,18</t>
+          <t>0,0; 1,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,79</t>
+          <t>0; 0,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0; 0,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,44</t>
+          <t>0,11; 1,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,04</t>
+          <t>0,0; 0,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,64</t>
+          <t>0,0; 0,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1007-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1007-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,27%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0; 1,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0; 0,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,63</t>
+          <t>0,0; 3,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0; 1,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,27</t>
+          <t>0,0; 2,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,69</t>
+          <t>0; 0,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,71</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,63</t>
+          <t>0,0; 1,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -752,37 +752,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,38%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,61</t>
+          <t>0,0; 1,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,18</t>
+          <t>0,0; 1,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,79</t>
+          <t>0,0; 1,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,0; 3,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,44</t>
+          <t>0,1; 1,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,04</t>
+          <t>0,0; 1,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,64</t>
+          <t>0,0; 1,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,22 +852,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,29</t>
+          <t>0,0; 3,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,28</t>
+          <t>0; 0,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,28</t>
+          <t>0; 0,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>0; 1,0</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,87</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,7</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,61</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,53</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,51</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 1,09</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,74</t>
+          <t>0; 0,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,58</t>
+          <t>0; 0,36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,18%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,98</t>
+          <t>0,0; 1,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,5</t>
+          <t>0,0; 1,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>0,0; 2,0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,21</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,79</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,78</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 1,32</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,13</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,09%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 0,97</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,46</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>0,08; 0,71</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,81</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,8</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 0,71</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>0,0; 0,83</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 0,7</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 0,4</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 0,55</t>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 0,64</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 0,48</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 0,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>

--- a/data/trans_dic/IP1007-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1007-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,04</t>
+          <t>0,0; 2,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>0,0; 1,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,98</t>
+          <t>0,0; 1,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,23</t>
+          <t>0,0; 1,35</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,97</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -805,37 +805,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,21</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,11</t>
+          <t>0,0; 1,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,91</t>
+          <t>0,0; 1,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,33</t>
+          <t>0,0; 2,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,24</t>
+          <t>0,1; 1,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,02</t>
+          <t>0,0; 0,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,28</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,26</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,61</t>
+          <t>0,0; 1,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1015,22 +1015,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>0,0; 1,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,93</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,0</t>
+          <t>0,0; 1,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,21</t>
+          <t>0,0; 2,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,32</t>
+          <t>0,15; 1,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,92</t>
+          <t>0,0; 0,93</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,97</t>
+          <t>0,17; 1,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1140,32 +1140,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,71</t>
+          <t>0,08; 0,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,7</t>
+          <t>0,0; 0,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,83</t>
+          <t>0,0; 0,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,64</t>
+          <t>0,14; 0,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,48</t>
+          <t>0,04; 0,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,54</t>
+          <t>0,05; 0,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1007-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1007-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -637,27 +637,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,56%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,39%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,32 +685,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0; 1,18</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,34</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,91</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>0; 1,05</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>0; 0,93</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,6</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,18</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,8</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>0,0; 3,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,06</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>0,0; 1,57</t>
         </is>
       </c>
     </row>
@@ -742,32 +742,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,56%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,24%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,21%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,38%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0,0; 0,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 2,3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,77</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,95</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,52</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>0,0; 1,22</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,04</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,9</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,92</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,09</t>
+          <t>0,1; 1,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,9</t>
+          <t>0,0; 0,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,44</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
     </row>
@@ -852,22 +852,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,85%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -905,37 +905,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,64</t>
+          <t>0; 1,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>0; 0,87</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,7</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,0</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,84</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>0; 0,73</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,0</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,87</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,7</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,37</t>
+          <t>0,0; 1,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -962,32 +962,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,31%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>0,39%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,37%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,63%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,55</t>
+          <t>0,0; 2,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0; 0,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,84</t>
+          <t>0; 0,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,19</t>
+          <t>0,0; 1,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>0,0; 1,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>0,0; 2,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,4</t>
+          <t>0,01; 1,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,13</t>
+          <t>0,0; 1,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,93</t>
+          <t>0,0; 0,86</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,45%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,09%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,26%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,26%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,21%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,17%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,02</t>
+          <t>0,08; 0,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,46</t>
+          <t>0,0; 0,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>0,0; 0,83</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 0,98</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>0,08; 0,71</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,74</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,77</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,71</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,66</t>
+          <t>0,14; 0,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,44</t>
+          <t>0,04; 0,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,57</t>
+          <t>0,05; 0,55</t>
         </is>
       </c>
     </row>
